--- a/MainTop/08.04.2025/p6.xlsx
+++ b/MainTop/08.04.2025/p6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V7"/>
+  <dimension ref="A1:V56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -548,151 +548,151 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Термонаклейка Кошка розово-фиолетовая крупный план</t>
+          <t>Термонаклейка Девушка и 2 ласточки</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P2" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>6_а4_настройки_60</t>
+          <t>1_а4</t>
         </is>
       </c>
       <c r="S2" t="inlineStr"/>
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>6_а4_настройки_60</t>
+          <t>1_а4</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Термонаклейка Губы Язык Краски Дизайн</t>
+          <t>Термонаклейка Змеи черная белая 2шт</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>4</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>3</v>
-      </c>
-      <c r="K3" t="n">
-        <v>3</v>
-      </c>
-      <c r="L3" t="n">
-        <v>2</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>18</v>
-      </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>6_а4_настройки_60</t>
+          <t>1_а4</t>
         </is>
       </c>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>6_а4_настройки_60</t>
+          <t>1_а4</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Термонаклейка Девушка Аниме Япония Красное Солнце</t>
+          <t>Термонаклейка Инь Янь Кошки</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -701,68 +701,68 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
         <v>4</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>4</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>4</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>12</v>
-      </c>
       <c r="Q4" t="n">
         <v>0</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>6_а4_настройки_60</t>
+          <t>1_а4</t>
         </is>
       </c>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>6_а4_настройки_60</t>
+          <t>1_а4</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Термонаклейка Девушка-кошка с чёрным котом поцелуй</t>
+          <t>Термонаклейка Лошадь в космических красках</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -774,16 +774,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -795,7 +795,7 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -804,31 +804,31 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>6_а4_настройки_60</t>
+          <t>1_а4</t>
         </is>
       </c>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>6_а4_настройки_60</t>
+          <t>1_а4</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Термонаклейка Аниме девочка черные очки язык</t>
+          <t>Термонаклейка Одри Хепбёрн буквы</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -847,7 +847,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -874,31 +874,31 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>6_а4_настройки_60</t>
+          <t>1_а4</t>
         </is>
       </c>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>6_а4_настройки_60</t>
+          <t>1_а4</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Термонаклейка Кит прягает из воды закат</t>
+          <t>Термонаклейка Подсолнух Ван Гог</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -911,7 +911,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -923,7 +923,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -951,7 +951,7 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>6_а4_настройки_60</t>
+          <t>1_а4</t>
         </is>
       </c>
       <c r="S7" t="inlineStr"/>
@@ -961,7 +961,3437 @@
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>6_а4_настройки_60</t>
+          <t>1_а4</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Термонаклейка Сейлор Мун Sailor Moon голубой фон</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>3</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="inlineStr"/>
+      <c r="U8" t="n">
+        <v>2</v>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Термонаклейка Черепаха Цветы на панцире</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>3</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="inlineStr"/>
+      <c r="U9" t="n">
+        <v>2</v>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Термонаклейка набор Соник Sonic</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="inlineStr"/>
+      <c r="U10" t="n">
+        <v>2</v>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Термонаклейка Котенок розовый закат звезды</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="inlineStr"/>
+      <c r="U11" t="n">
+        <v>2</v>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Термонаклейка Черный Кот Силует астрономия</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr"/>
+      <c r="T12" t="inlineStr"/>
+      <c r="U12" t="n">
+        <v>2</v>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Термонаклейка Сова в цветах</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr"/>
+      <c r="T13" t="inlineStr"/>
+      <c r="U13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Термонаклейка Череп цветы Подсолнух Ван Гог</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr"/>
+      <c r="T14" t="inlineStr"/>
+      <c r="U14" t="n">
+        <v>1</v>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Термонаклейка Бабочка зеленная листья</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>2</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr"/>
+      <c r="T15" t="inlineStr"/>
+      <c r="U15" t="n">
+        <v>1</v>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Термонаклейка Девушка холст растут цветы</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>2</v>
+      </c>
+      <c r="P16" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr"/>
+      <c r="T16" t="inlineStr"/>
+      <c r="U16" t="n">
+        <v>1</v>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Термонаклейка Морская Ракушка Силует</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>2</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr"/>
+      <c r="T17" t="inlineStr"/>
+      <c r="U17" t="n">
+        <v>1</v>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Термонаклейка Фламинго Flamingo цветы</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr"/>
+      <c r="T18" t="inlineStr"/>
+      <c r="U18" t="n">
+        <v>1</v>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Термонаклейка набор Том и Джерри Tom and Jerry</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>2</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr"/>
+      <c r="T19" t="inlineStr"/>
+      <c r="U19" t="n">
+        <v>1</v>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Термонаклейка Кит хвост из волн море океан</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr"/>
+      <c r="T20" t="inlineStr"/>
+      <c r="U20" t="n">
+        <v>1</v>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Термонаклейка Медуза Горгона черно-белый</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr"/>
+      <c r="T21" t="inlineStr"/>
+      <c r="U21" t="n">
+        <v>1</v>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Термонаклейка Чёрный кот на закате у моря и цветов</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr"/>
+      <c r="T22" t="inlineStr"/>
+      <c r="U22" t="n">
+        <v>1</v>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Термонаклейка Девочка Ангел с хвостами</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>2</v>
+      </c>
+      <c r="C23" t="n">
+        <v>2</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1</v>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+      <c r="I23" t="n">
+        <v>7</v>
+      </c>
+      <c r="J23" t="n">
+        <v>3</v>
+      </c>
+      <c r="K23" t="n">
+        <v>3</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+      <c r="N23" t="n">
+        <v>1</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1</v>
+      </c>
+      <c r="P23" t="n">
+        <v>28</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>2_а5</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr"/>
+      <c r="T23" t="inlineStr"/>
+      <c r="U23" t="n">
+        <v>7</v>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>2_а5</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Термонаклейка Единорог с ромашкой сердечки</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>1</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" t="n">
+        <v>7</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1</v>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+      <c r="I24" t="n">
+        <v>1</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1</v>
+      </c>
+      <c r="K24" t="n">
+        <v>3</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+      <c r="N24" t="n">
+        <v>1</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1</v>
+      </c>
+      <c r="P24" t="n">
+        <v>24</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0</v>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>2_а5</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr"/>
+      <c r="T24" t="inlineStr"/>
+      <c r="U24" t="n">
+        <v>6</v>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>2_а5</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Термонаклейка Дисней утка Дейзи Сердечко</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>3</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>5</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>3</v>
+      </c>
+      <c r="L25" t="n">
+        <v>3</v>
+      </c>
+      <c r="M25" t="n">
+        <v>2</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>2_а5</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr"/>
+      <c r="T25" t="inlineStr"/>
+      <c r="U25" t="n">
+        <v>4</v>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>2_а5</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Термонаклейка Мишка Каратэ нога вверх</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>1</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" t="n">
+        <v>9</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>3</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>2_а5</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr"/>
+      <c r="T26" t="inlineStr"/>
+      <c r="U26" t="n">
+        <v>4</v>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>2_а5</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Термонаклейка Девочка в зелёном с подсолнухом</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>1</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>3</v>
+      </c>
+      <c r="K27" t="n">
+        <v>3</v>
+      </c>
+      <c r="L27" t="n">
+        <v>3</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0</v>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>2_а5</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr"/>
+      <c r="T27" t="inlineStr"/>
+      <c r="U27" t="n">
+        <v>4</v>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>2_а5</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Термонаклейка Разноцветные сердечки</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>1</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>3</v>
+      </c>
+      <c r="K28" t="n">
+        <v>3</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>3</v>
+      </c>
+      <c r="P28" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>2_а5</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr"/>
+      <c r="T28" t="inlineStr"/>
+      <c r="U28" t="n">
+        <v>4</v>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>2_а5</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Термонаклейка Единороги голубой и розовый</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>1</v>
+      </c>
+      <c r="C29" t="n">
+        <v>3</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1</v>
+      </c>
+      <c r="E29" t="n">
+        <v>2</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>3</v>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>1</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>2_а5</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr"/>
+      <c r="T29" t="inlineStr"/>
+      <c r="U29" t="n">
+        <v>3</v>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>2_а5</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Термонаклейка Зайка балерина</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>1</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>5</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>4</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0</v>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>2_а5</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr"/>
+      <c r="T30" t="inlineStr"/>
+      <c r="U30" t="n">
+        <v>3</v>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>2_а5</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Термонаклейка Спанч Боб и друзья</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>1</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>3</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>2_а5</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr"/>
+      <c r="T31" t="inlineStr"/>
+      <c r="U31" t="n">
+        <v>3</v>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>2_а5</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Термонаклейка Девочка в розовом платье</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>1</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>4</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>3</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>2_а5</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr"/>
+      <c r="T32" t="inlineStr"/>
+      <c r="U32" t="n">
+        <v>2</v>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>2_а5</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Термонаклейка Радужный котенок счастливый</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>1</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>3</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>3</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0</v>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>2_а5</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr"/>
+      <c r="T33" t="inlineStr"/>
+      <c r="U33" t="n">
+        <v>2</v>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>2_а5</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Термонаклейка Сова розовая</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>1</v>
+      </c>
+      <c r="C34" t="n">
+        <v>1</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1</v>
+      </c>
+      <c r="E34" t="n">
+        <v>1</v>
+      </c>
+      <c r="F34" t="n">
+        <v>1</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>3</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>2_а5</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr"/>
+      <c r="T34" t="inlineStr"/>
+      <c r="U34" t="n">
+        <v>2</v>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>2_а5</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Термонаклейка Эльза Холодное сердце синий круг</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>1</v>
+      </c>
+      <c r="C35" t="n">
+        <v>1</v>
+      </c>
+      <c r="D35" t="n">
+        <v>3</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>3</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>2_а5</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr"/>
+      <c r="T35" t="inlineStr"/>
+      <c r="U35" t="n">
+        <v>2</v>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>2_а5</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Термонаклейка Соник Ежик бежит пис мир рука</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>1</v>
+      </c>
+      <c r="C36" t="n">
+        <v>1</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1</v>
+      </c>
+      <c r="E36" t="n">
+        <v>1</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>3</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>1</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0</v>
+      </c>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>2_а5</t>
+        </is>
+      </c>
+      <c r="S36" t="inlineStr"/>
+      <c r="T36" t="inlineStr"/>
+      <c r="U36" t="n">
+        <v>2</v>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>2_а5</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Термонаклейка Чёрный котенок в цветах</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>1</v>
+      </c>
+      <c r="C37" t="n">
+        <v>1</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>5</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>2_а5</t>
+        </is>
+      </c>
+      <c r="S37" t="inlineStr"/>
+      <c r="T37" t="inlineStr"/>
+      <c r="U37" t="n">
+        <v>2</v>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>2_а5</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Термонаклейка Барт с рогаткой Симпсоны</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>1</v>
+      </c>
+      <c r="C38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>3</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>2_а5</t>
+        </is>
+      </c>
+      <c r="S38" t="inlineStr"/>
+      <c r="T38" t="inlineStr"/>
+      <c r="U38" t="n">
+        <v>2</v>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>2_а5</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Термонаклейка Спанч Боб и друзья Keep Vibes</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>1</v>
+      </c>
+      <c r="C39" t="n">
+        <v>1</v>
+      </c>
+      <c r="D39" t="n">
+        <v>1</v>
+      </c>
+      <c r="E39" t="n">
+        <v>1</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>2</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0</v>
+      </c>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>2_а5</t>
+        </is>
+      </c>
+      <c r="S39" t="inlineStr"/>
+      <c r="T39" t="inlineStr"/>
+      <c r="U39" t="n">
+        <v>2</v>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>2_а5</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Термонаклейка Весёлый енот выглядывает</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>4</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>2_а5</t>
+        </is>
+      </c>
+      <c r="S40" t="inlineStr"/>
+      <c r="T40" t="inlineStr"/>
+      <c r="U40" t="n">
+        <v>1</v>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>2_а5</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Термонаклейка Зайчик синий комбинезон шагает</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>3</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>1</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>2_а5</t>
+        </is>
+      </c>
+      <c r="S41" t="inlineStr"/>
+      <c r="T41" t="inlineStr"/>
+      <c r="U41" t="n">
+        <v>1</v>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>2_а5</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Термонаклейка Соник Ежик бежит синий фон краски</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0</v>
+      </c>
+      <c r="D42" t="n">
+        <v>1</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>3</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0</v>
+      </c>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>2_а5</t>
+        </is>
+      </c>
+      <c r="S42" t="inlineStr"/>
+      <c r="T42" t="inlineStr"/>
+      <c r="U42" t="n">
+        <v>1</v>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>2_а5</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Термонаклейка Девочка с маком в руках</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>1</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>3</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>2_а5</t>
+        </is>
+      </c>
+      <c r="S43" t="inlineStr"/>
+      <c r="T43" t="inlineStr"/>
+      <c r="U43" t="n">
+        <v>1</v>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>2_а5</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Термонаклейка Минни Маус поправляет бант</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>1</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>3</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>2_а5</t>
+        </is>
+      </c>
+      <c r="S44" t="inlineStr"/>
+      <c r="T44" t="inlineStr"/>
+      <c r="U44" t="n">
+        <v>1</v>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>2_а5</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Термонаклейка Покемоны Пикачу и Эш Кетчум</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>1</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
+        <v>3</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0</v>
+      </c>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>2_а5</t>
+        </is>
+      </c>
+      <c r="S45" t="inlineStr"/>
+      <c r="T45" t="inlineStr"/>
+      <c r="U45" t="n">
+        <v>1</v>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>2_а5</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Термонаклейка Динозавр в очках ест бургер</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>1</v>
+      </c>
+      <c r="C46" t="n">
+        <v>1</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>2</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>2_а5</t>
+        </is>
+      </c>
+      <c r="S46" t="inlineStr"/>
+      <c r="T46" t="inlineStr"/>
+      <c r="U46" t="n">
+        <v>1</v>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>2_а5</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Термонаклейка Радужный мишка с улыбкой</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>1</v>
+      </c>
+      <c r="C47" t="n">
+        <v>1</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" t="n">
+        <v>2</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0</v>
+      </c>
+      <c r="O47" t="n">
+        <v>0</v>
+      </c>
+      <c r="P47" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>0</v>
+      </c>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>2_а5</t>
+        </is>
+      </c>
+      <c r="S47" t="inlineStr"/>
+      <c r="T47" t="inlineStr"/>
+      <c r="U47" t="n">
+        <v>1</v>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>2_а5</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Термонаклейка Улыбающийся лисенок в снегу</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>1</v>
+      </c>
+      <c r="C48" t="n">
+        <v>1</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0</v>
+      </c>
+      <c r="M48" t="n">
+        <v>2</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0</v>
+      </c>
+      <c r="O48" t="n">
+        <v>0</v>
+      </c>
+      <c r="P48" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>0</v>
+      </c>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>2_а5</t>
+        </is>
+      </c>
+      <c r="S48" t="inlineStr"/>
+      <c r="T48" t="inlineStr"/>
+      <c r="U48" t="n">
+        <v>1</v>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>2_а5</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Термонаклейка Человек Паук Лого позади</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>1</v>
+      </c>
+      <c r="C49" t="n">
+        <v>1</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="n">
+        <v>1</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0</v>
+      </c>
+      <c r="O49" t="n">
+        <v>1</v>
+      </c>
+      <c r="P49" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>0</v>
+      </c>
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>2_а5</t>
+        </is>
+      </c>
+      <c r="S49" t="inlineStr"/>
+      <c r="T49" t="inlineStr"/>
+      <c r="U49" t="n">
+        <v>1</v>
+      </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>2_а5</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Термонаклейка Дисней утка Дейзи и Минни пис</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>1</v>
+      </c>
+      <c r="C50" t="n">
+        <v>1</v>
+      </c>
+      <c r="D50" t="n">
+        <v>1</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0</v>
+      </c>
+      <c r="O50" t="n">
+        <v>1</v>
+      </c>
+      <c r="P50" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>0</v>
+      </c>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>2_а5</t>
+        </is>
+      </c>
+      <c r="S50" t="inlineStr"/>
+      <c r="T50" t="inlineStr"/>
+      <c r="U50" t="n">
+        <v>1</v>
+      </c>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>2_а5</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Термонаклейка Единорог ресницы цветы уши</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>1</v>
+      </c>
+      <c r="C51" t="n">
+        <v>1</v>
+      </c>
+      <c r="D51" t="n">
+        <v>1</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0</v>
+      </c>
+      <c r="O51" t="n">
+        <v>1</v>
+      </c>
+      <c r="P51" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>0</v>
+      </c>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>2_а5</t>
+        </is>
+      </c>
+      <c r="S51" t="inlineStr"/>
+      <c r="T51" t="inlineStr"/>
+      <c r="U51" t="n">
+        <v>1</v>
+      </c>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>2_а5</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Термонаклейка Животные с радугой</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>1</v>
+      </c>
+      <c r="C52" t="n">
+        <v>1</v>
+      </c>
+      <c r="D52" t="n">
+        <v>1</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>1</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0</v>
+      </c>
+      <c r="O52" t="n">
+        <v>0</v>
+      </c>
+      <c r="P52" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>0</v>
+      </c>
+      <c r="R52" t="inlineStr">
+        <is>
+          <t>2_а5</t>
+        </is>
+      </c>
+      <c r="S52" t="inlineStr"/>
+      <c r="T52" t="inlineStr"/>
+      <c r="U52" t="n">
+        <v>1</v>
+      </c>
+      <c r="V52" t="inlineStr">
+        <is>
+          <t>2_а5</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Термонаклейка Лило и Стич сидят</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>1</v>
+      </c>
+      <c r="C53" t="n">
+        <v>1</v>
+      </c>
+      <c r="D53" t="n">
+        <v>1</v>
+      </c>
+      <c r="E53" t="n">
+        <v>1</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0</v>
+      </c>
+      <c r="O53" t="n">
+        <v>0</v>
+      </c>
+      <c r="P53" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>0</v>
+      </c>
+      <c r="R53" t="inlineStr">
+        <is>
+          <t>2_а5</t>
+        </is>
+      </c>
+      <c r="S53" t="inlineStr"/>
+      <c r="T53" t="inlineStr"/>
+      <c r="U53" t="n">
+        <v>1</v>
+      </c>
+      <c r="V53" t="inlineStr">
+        <is>
+          <t>2_а5</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Термонаклейка Минни Маус и бабочка</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>1</v>
+      </c>
+      <c r="C54" t="n">
+        <v>1</v>
+      </c>
+      <c r="D54" t="n">
+        <v>1</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0</v>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0</v>
+      </c>
+      <c r="O54" t="n">
+        <v>0</v>
+      </c>
+      <c r="P54" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>0</v>
+      </c>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t>2_а5</t>
+        </is>
+      </c>
+      <c r="S54" t="inlineStr"/>
+      <c r="T54" t="inlineStr"/>
+      <c r="U54" t="n">
+        <v>1</v>
+      </c>
+      <c r="V54" t="inlineStr">
+        <is>
+          <t>2_а5</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Термонаклейка Минни Маус целует Микки</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>1</v>
+      </c>
+      <c r="C55" t="n">
+        <v>1</v>
+      </c>
+      <c r="D55" t="n">
+        <v>1</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0</v>
+      </c>
+      <c r="M55" t="n">
+        <v>1</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0</v>
+      </c>
+      <c r="O55" t="n">
+        <v>0</v>
+      </c>
+      <c r="P55" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>0</v>
+      </c>
+      <c r="R55" t="inlineStr">
+        <is>
+          <t>2_а5</t>
+        </is>
+      </c>
+      <c r="S55" t="inlineStr"/>
+      <c r="T55" t="inlineStr"/>
+      <c r="U55" t="n">
+        <v>1</v>
+      </c>
+      <c r="V55" t="inlineStr">
+        <is>
+          <t>2_а5</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Термонаклейка львенок с милой улыбкой</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>1</v>
+      </c>
+      <c r="C56" t="n">
+        <v>1</v>
+      </c>
+      <c r="D56" t="n">
+        <v>1</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>1</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0</v>
+      </c>
+      <c r="O56" t="n">
+        <v>0</v>
+      </c>
+      <c r="P56" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>0</v>
+      </c>
+      <c r="R56" t="inlineStr">
+        <is>
+          <t>2_а5</t>
+        </is>
+      </c>
+      <c r="S56" t="inlineStr"/>
+      <c r="T56" t="inlineStr"/>
+      <c r="U56" t="n">
+        <v>1</v>
+      </c>
+      <c r="V56" t="inlineStr">
+        <is>
+          <t>2_а5</t>
         </is>
       </c>
     </row>

--- a/MainTop/08.04.2025/p6.xlsx
+++ b/MainTop/08.04.2025/p6.xlsx
@@ -548,11 +548,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Термонаклейка Девушка и 2 ласточки</t>
+          <t>Термонаклейка Сердце Море Силует</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -561,7 +561,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -585,13 +585,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>4</v>
@@ -618,14 +618,14 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Термонаклейка Змеи черная белая 2шт</t>
+          <t>Термонаклейка Сердце отпечаток пальца красный</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -634,16 +634,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -688,7 +688,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Термонаклейка Инь Янь Кошки</t>
+          <t>Термонаклейка Девушка Силует Акварель Лес</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -701,7 +701,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -713,7 +713,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -731,7 +731,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P4" t="n">
         <v>4</v>
@@ -758,7 +758,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Термонаклейка Лошадь в космических красках</t>
+          <t>Термонаклейка Девушка бабочка Ван Гог</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -774,28 +774,28 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
         <v>3</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -828,7 +828,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Термонаклейка Одри Хепбёрн буквы</t>
+          <t>Термонаклейка Девушка и 2 ласточки</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -838,40 +838,40 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
         <v>3</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>4</v>
@@ -898,20 +898,20 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Термонаклейка Подсолнух Ван Гог</t>
+          <t>Термонаклейка Змеи черная белая 2шт</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -920,7 +920,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -968,7 +968,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Термонаклейка Сейлор Мун Sailor Moon голубой фон</t>
+          <t>Термонаклейка Инь Янь Кошки</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -981,7 +981,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -999,7 +999,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1038,7 +1038,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Термонаклейка Черепаха Цветы на панцире</t>
+          <t>Термонаклейка Лошадь в космических красках</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1078,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -1108,7 +1108,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Термонаклейка набор Соник Sonic</t>
+          <t>Термонаклейка Одри Хепбёрн буквы</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -1118,16 +1118,16 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1178,11 +1178,11 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Термонаклейка Котенок розовый закат звезды</t>
+          <t>Термонаклейка Подсолнух Ван Гог</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1191,7 +1191,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1200,13 +1200,13 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1248,7 +1248,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Термонаклейка Черный Кот Силует астрономия</t>
+          <t>Термонаклейка Сейлор Мун Sailor Moon голубой фон</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -1270,16 +1270,16 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -1318,14 +1318,14 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Термонаклейка Сова в цветах</t>
+          <t>Термонаклейка Черепаха Цветы на панцире</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1358,13 +1358,13 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -1377,7 +1377,7 @@
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V13" t="inlineStr">
         <is>
@@ -1388,7 +1388,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Термонаклейка Череп цветы Подсолнух Ван Гог</t>
+          <t>Термонаклейка набор Соник Sonic</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -1401,19 +1401,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -1447,7 +1447,7 @@
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V14" t="inlineStr">
         <is>
@@ -1458,7 +1458,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Термонаклейка Бабочка зеленная листья</t>
+          <t>Термонаклейка Котенок розовый закат звезды</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -1471,7 +1471,7 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1480,13 +1480,13 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1504,7 +1504,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -1517,7 +1517,7 @@
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V15" t="inlineStr">
         <is>
@@ -1528,11 +1528,11 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Термонаклейка Девушка холст растут цветы</t>
+          <t>Термонаклейка Черный Кот Силует астрономия</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1550,13 +1550,13 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1571,10 +1571,10 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -1587,7 +1587,7 @@
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V16" t="inlineStr">
         <is>
@@ -1598,14 +1598,14 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Термонаклейка Морская Ракушка Силует</t>
+          <t>Термонаклейка Сова в цветах</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1623,7 +1623,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1668,11 +1668,11 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Термонаклейка Фламинго Flamingo цветы</t>
+          <t>Термонаклейка Череп цветы Подсолнух Ван Гог</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -1693,7 +1693,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1705,7 +1705,7 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -1738,7 +1738,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Термонаклейка набор Том и Джерри Tom and Jerry</t>
+          <t>Термонаклейка Бабочка зеленная листья</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -1751,7 +1751,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -1763,7 +1763,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -1808,11 +1808,11 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Термонаклейка Кит хвост из волн море океан</t>
+          <t>Термонаклейка Девушка холст растут цветы</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -1845,13 +1845,13 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P20" t="n">
         <v>2</v>
@@ -1878,17 +1878,17 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Термонаклейка Медуза Горгона черно-белый</t>
+          <t>Термонаклейка Морская Ракушка Силует</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -1903,7 +1903,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -1948,17 +1948,17 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Термонаклейка Чёрный кот на закате у моря и цветов</t>
+          <t>Термонаклейка Фламинго Flamingo цветы</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -1985,7 +1985,7 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -2018,157 +2018,157 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Термонаклейка Девочка Ангел с хвостами</t>
+          <t>Термонаклейка набор Том и Джерри Tom and Jerry</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>2_а5</t>
+          <t>1_а4</t>
         </is>
       </c>
       <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>2_а5</t>
+          <t>1_а4</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Термонаклейка Единорог с ромашкой сердечки</t>
+          <t>Термонаклейка Кит хвост из волн море океан</t>
         </is>
       </c>
       <c r="B24" t="n">
         <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
       <c r="N24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>2_а5</t>
+          <t>1_а4</t>
         </is>
       </c>
       <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>2_а5</t>
+          <t>1_а4</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Термонаклейка Дисней утка Дейзи Сердечко</t>
+          <t>Термонаклейка Медуза Горгона черно-белый</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2183,19 +2183,19 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -2204,50 +2204,50 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>2_а5</t>
+          <t>1_а4</t>
         </is>
       </c>
       <c r="S25" t="inlineStr"/>
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>2_а5</t>
+          <t>1_а4</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Термонаклейка Мишка Каратэ нога вверх</t>
+          <t>Термонаклейка Чёрный кот на закате у моря и цветов</t>
         </is>
       </c>
       <c r="B26" t="n">
         <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>1</v>
       </c>
       <c r="E26" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2262,7 +2262,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -2274,38 +2274,38 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>2_а5</t>
+          <t>1_а4</t>
         </is>
       </c>
       <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>2_а5</t>
+          <t>1_а4</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Термонаклейка Девочка в зелёном с подсолнухом</t>
+          <t>Термонаклейка Девочка Ангел с хвостами</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>1</v>
@@ -2314,16 +2314,16 @@
         <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" t="n">
         <v>3</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J27" t="n">
         <v>3</v>
@@ -2332,19 +2332,19 @@
         <v>3</v>
       </c>
       <c r="L27" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P27" t="n">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -2357,7 +2357,7 @@
       <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="V27" t="inlineStr">
         <is>
@@ -2368,7 +2368,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Термонаклейка Разноцветные сердечки</t>
+          <t>Термонаклейка Единорог с ромашкой сердечки</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -2381,40 +2381,40 @@
         <v>1</v>
       </c>
       <c r="E28" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" t="n">
         <v>3</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K28" t="n">
         <v>3</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P28" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -2427,7 +2427,7 @@
       <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="V28" t="inlineStr">
         <is>
@@ -2438,44 +2438,44 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Термонаклейка Единороги голубой и розовый</t>
+          <t>Термонаклейка Дисней утка Дейзи Сердечко</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>3</v>
       </c>
       <c r="D29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>5</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
         <v>3</v>
       </c>
-      <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>1</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -2484,7 +2484,7 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -2497,7 +2497,7 @@
       <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V29" t="inlineStr">
         <is>
@@ -2508,7 +2508,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Термонаклейка Зайка балерина</t>
+          <t>Термонаклейка Мишка Каратэ нога вверх</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -2521,13 +2521,13 @@
         <v>1</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2539,22 +2539,22 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -2567,7 +2567,7 @@
       <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V30" t="inlineStr">
         <is>
@@ -2578,7 +2578,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Термонаклейка Спанч Боб и друзья</t>
+          <t>Термонаклейка Девочка в зелёном с подсолнухом</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -2594,7 +2594,7 @@
         <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2609,10 +2609,10 @@
         <v>3</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L31" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -2624,7 +2624,7 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -2637,7 +2637,7 @@
       <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V31" t="inlineStr">
         <is>
@@ -2648,20 +2648,20 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Термонаклейка Девочка в розовом платье</t>
+          <t>Термонаклейка Разноцветные сердечки</t>
         </is>
       </c>
       <c r="B32" t="n">
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -2670,13 +2670,13 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I32" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K32" t="n">
         <v>3</v>
@@ -2691,10 +2691,10 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P32" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -2707,7 +2707,7 @@
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V32" t="inlineStr">
         <is>
@@ -2718,38 +2718,38 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Термонаклейка Радужный котенок счастливый</t>
+          <t>Термонаклейка Единороги голубой и розовый</t>
         </is>
       </c>
       <c r="B33" t="n">
         <v>1</v>
       </c>
       <c r="C33" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K33" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -2777,7 +2777,7 @@
       <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V33" t="inlineStr">
         <is>
@@ -2788,7 +2788,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Термонаклейка Сова розовая</t>
+          <t>Термонаклейка Зайка балерина</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -2801,10 +2801,10 @@
         <v>1</v>
       </c>
       <c r="E34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -2819,7 +2819,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -2828,13 +2828,13 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -2847,7 +2847,7 @@
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V34" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Термонаклейка Эльза Холодное сердце синий круг</t>
+          <t>Термонаклейка Спанч Боб и друзья</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -2868,34 +2868,34 @@
         <v>1</v>
       </c>
       <c r="D35" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G35" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -2904,7 +2904,7 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -2917,7 +2917,7 @@
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V35" t="inlineStr">
         <is>
@@ -2928,20 +2928,20 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Термонаклейка Соник Ежик бежит пис мир рука</t>
+          <t>Термонаклейка Девочка в розовом платье</t>
         </is>
       </c>
       <c r="B36" t="n">
         <v>1</v>
       </c>
       <c r="C36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -2953,7 +2953,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -2968,7 +2968,7 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Термонаклейка Чёрный котенок в цветах</t>
+          <t>Термонаклейка Радужный котенок счастливый</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -3008,7 +3008,7 @@
         <v>1</v>
       </c>
       <c r="D37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3029,7 +3029,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -3038,7 +3038,7 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -3068,7 +3068,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Термонаклейка Барт с рогаткой Симпсоны</t>
+          <t>Термонаклейка Сова розовая</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -3078,28 +3078,28 @@
         <v>1</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
         <v>3</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>3</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -3138,7 +3138,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Термонаклейка Спанч Боб и друзья Keep Vibes</t>
+          <t>Термонаклейка Эльза Холодное сердце синий круг</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -3148,25 +3148,25 @@
         <v>1</v>
       </c>
       <c r="D39" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3208,20 +3208,20 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Термонаклейка Весёлый енот выглядывает</t>
+          <t>Термонаклейка Соник Ежик бежит пис мир рука</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3233,13 +3233,13 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -3248,13 +3248,13 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -3267,7 +3267,7 @@
       <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V40" t="inlineStr">
         <is>
@@ -3278,23 +3278,23 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Термонаклейка Зайчик синий комбинезон шагает</t>
+          <t>Термонаклейка Чёрный котенок в цветах</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3306,10 +3306,10 @@
         <v>1</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -3324,7 +3324,7 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -3337,7 +3337,7 @@
       <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V41" t="inlineStr">
         <is>
@@ -3348,17 +3348,17 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Термонаклейка Соник Ежик бежит синий фон краски</t>
+          <t>Термонаклейка Барт с рогаткой Симпсоны</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -3367,22 +3367,22 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -3394,7 +3394,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -3407,7 +3407,7 @@
       <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V42" t="inlineStr">
         <is>
@@ -3418,20 +3418,20 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Термонаклейка Девочка с маком в руках</t>
+          <t>Термонаклейка Спанч Боб и друзья Keep Vibes</t>
         </is>
       </c>
       <c r="B43" t="n">
         <v>1</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3440,16 +3440,16 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K43" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -3464,7 +3464,7 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
       <c r="S43" t="inlineStr"/>
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V43" t="inlineStr">
         <is>
@@ -3488,17 +3488,17 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Термонаклейка Минни Маус поправляет бант</t>
+          <t>Термонаклейка Весёлый енот выглядывает</t>
         </is>
       </c>
       <c r="B44" t="n">
         <v>1</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D44" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -3513,7 +3513,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -3558,14 +3558,14 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Термонаклейка Покемоны Пикачу и Эш Кетчум</t>
+          <t>Термонаклейка Зайчик синий комбинезон шагает</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -3574,7 +3574,7 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -3583,7 +3583,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -3628,17 +3628,17 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Термонаклейка Динозавр в очках ест бургер</t>
+          <t>Термонаклейка Соник Ежик бежит синий фон краски</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -3647,13 +3647,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -3665,7 +3665,7 @@
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -3698,14 +3698,14 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Термонаклейка Радужный мишка с улыбкой</t>
+          <t>Термонаклейка Девочка с маком в руках</t>
         </is>
       </c>
       <c r="B47" t="n">
         <v>1</v>
       </c>
       <c r="C47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D47" t="n">
         <v>0</v>
@@ -3729,13 +3729,13 @@
         <v>0</v>
       </c>
       <c r="K47" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L47" t="n">
         <v>0</v>
       </c>
       <c r="M47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N47" t="n">
         <v>0</v>
@@ -3768,7 +3768,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Термонаклейка Улыбающийся лисенок в снегу</t>
+          <t>Термонаклейка Минни Маус поправляет бант</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -3778,10 +3778,10 @@
         <v>1</v>
       </c>
       <c r="D48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F48" t="n">
         <v>0</v>
@@ -3805,7 +3805,7 @@
         <v>0</v>
       </c>
       <c r="M48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N48" t="n">
         <v>0</v>
@@ -3838,20 +3838,20 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Термонаклейка Человек Паук Лого позади</t>
+          <t>Термонаклейка Покемоны Пикачу и Эш Кетчум</t>
         </is>
       </c>
       <c r="B49" t="n">
         <v>1</v>
       </c>
       <c r="C49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F49" t="n">
         <v>1</v>
@@ -3881,7 +3881,7 @@
         <v>0</v>
       </c>
       <c r="O49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P49" t="n">
         <v>4</v>
@@ -3908,7 +3908,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Термонаклейка Дисней утка Дейзи и Минни пис</t>
+          <t>Термонаклейка Динозавр в очках ест бургер</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -3918,7 +3918,7 @@
         <v>1</v>
       </c>
       <c r="D50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E50" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="M50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N50" t="n">
         <v>0</v>
       </c>
       <c r="O50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P50" t="n">
         <v>4</v>
@@ -3978,7 +3978,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Термонаклейка Единорог ресницы цветы уши</t>
+          <t>Термонаклейка Радужный мишка с улыбкой</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -3988,7 +3988,7 @@
         <v>1</v>
       </c>
       <c r="D51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E51" t="n">
         <v>0</v>
@@ -4015,13 +4015,13 @@
         <v>0</v>
       </c>
       <c r="M51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N51" t="n">
         <v>0</v>
       </c>
       <c r="O51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P51" t="n">
         <v>4</v>
@@ -4048,7 +4048,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Термонаклейка Животные с радугой</t>
+          <t>Термонаклейка Улыбающийся лисенок в снегу</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -4058,7 +4058,7 @@
         <v>1</v>
       </c>
       <c r="D52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E52" t="n">
         <v>0</v>
@@ -4073,7 +4073,7 @@
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J52" t="n">
         <v>0</v>
@@ -4085,7 +4085,7 @@
         <v>0</v>
       </c>
       <c r="M52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N52" t="n">
         <v>0</v>
@@ -4118,7 +4118,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Термонаклейка Лило и Стич сидят</t>
+          <t>Термонаклейка Человек Паук Лого позади</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -4128,13 +4128,13 @@
         <v>1</v>
       </c>
       <c r="D53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G53" t="n">
         <v>0</v>
@@ -4161,7 +4161,7 @@
         <v>0</v>
       </c>
       <c r="O53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P53" t="n">
         <v>4</v>
@@ -4188,7 +4188,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Термонаклейка Минни Маус и бабочка</t>
+          <t>Термонаклейка Дисней утка Дейзи и Минни пис</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -4222,7 +4222,7 @@
         <v>0</v>
       </c>
       <c r="L54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M54" t="n">
         <v>0</v>
@@ -4231,7 +4231,7 @@
         <v>0</v>
       </c>
       <c r="O54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P54" t="n">
         <v>4</v>
@@ -4258,7 +4258,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Термонаклейка Минни Маус целует Микки</t>
+          <t>Термонаклейка Единорог ресницы цветы уши</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -4295,13 +4295,13 @@
         <v>0</v>
       </c>
       <c r="M55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N55" t="n">
         <v>0</v>
       </c>
       <c r="O55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P55" t="n">
         <v>4</v>
@@ -4328,7 +4328,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Термонаклейка львенок с милой улыбкой</t>
+          <t>Термонаклейка Животные с радугой</t>
         </is>
       </c>
       <c r="B56" t="n">
